--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPAS\Documents\UiPath\Process1_Invoice Posting\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPAS\Documents\UiPath\Process1_InvoiceRegister\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -132,9 +132,6 @@
     <t>Download_Path</t>
   </si>
   <si>
-    <t>O:\Singapore\DA Package</t>
-  </si>
-  <si>
     <t>SharePoint_RPAJournal</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>https://gbsc.s5asia.com/SG%20VIR%20TEST/Forms/RPA_Posting.aspx</t>
+  </si>
+  <si>
+    <t>O:\Singapore\DA Package\RPA TEST</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>32</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -135,13 +135,10 @@
     <t>SharePoint_RPAJournal</t>
   </si>
   <si>
-    <t>SharePoint_RPAPosting</t>
+    <t>https://gbsc.s5asia.com/SG%20VIR%202021/Forms/RPA_Journal.aspx</t>
   </si>
   <si>
-    <t>https://gbsc.s5asia.com/SG%20VIR%20TEST/Forms/RPA_Posting.aspx</t>
-  </si>
-  <si>
-    <t>O:\Singapore\DA Package\RPA TEST</t>
+    <t>O:\Singapore\DA Package</t>
   </si>
 </sst>
 </file>
@@ -528,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -612,28 +609,29 @@
         <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B13" s="5"/>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1621,8 +1619,8 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -135,10 +135,28 @@
     <t>SharePoint_RPAJournal</t>
   </si>
   <si>
+    <t>O:\Singapore\DA Package</t>
+  </si>
+  <si>
+    <t>RDC</t>
+  </si>
+  <si>
+    <t>192.168.18.38</t>
+  </si>
+  <si>
+    <t>AX_System</t>
+  </si>
+  <si>
+    <t>Excel_ExtractData</t>
+  </si>
+  <si>
+    <t>O:\Singapore\DA Package\RPA_FOLDER</t>
+  </si>
+  <si>
     <t>https://gbsc.s5asia.com/SG%20VIR%202021/Forms/RPA_Journal.aspx</t>
   </si>
   <si>
-    <t>O:\Singapore\DA Package</t>
+    <t>Microsoft Dynamics AX*LIVE*</t>
   </si>
 </sst>
 </file>
@@ -156,6 +174,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -174,6 +193,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -523,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -609,48 +629,74 @@
         <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B9" s="5"/>
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
+      <c r="B11" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B14" s="5"/>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:2" ht="14.25" customHeight="1">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="2:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1616,6 +1662,7 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -546,7 +546,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -675,7 +675,9 @@
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B15" s="5"/>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="B16" s="5"/>
     </row>
